--- a/data/historical_estimates/raw/Cameron_Forney_2000.xlsx
+++ b/data/historical_estimates/raw/Cameron_Forney_2000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7459FAE-5054-E846-A879-84FEABE51B10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191ED6C0-8BAE-8549-9B72-E751E15D168B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28120" yWindow="500" windowWidth="22100" windowHeight="20360" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20280" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>Table 3</t>
   </si>
   <si>
-    <t>Cmeron 2000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unidentified Cormorant </t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>Cameron &amp; Forney 2000</t>
   </si>
 </sst>
 </file>
@@ -146,11 +146,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,15 +464,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5835606F-17C4-734B-AF17-790539259DAA}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.83203125" bestFit="1" customWidth="1"/>
@@ -490,59 +489,59 @@
     <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>1999</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
       <c r="E2">
         <v>28</v>
@@ -560,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2">
         <v>133</v>
@@ -571,20 +570,19 @@
       <c r="M2">
         <v>0.23</v>
       </c>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>1999</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
       <c r="E3">
         <v>27</v>
@@ -602,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>128</v>
@@ -613,20 +611,19 @@
       <c r="M3">
         <v>0.24</v>
       </c>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>1999</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -644,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -655,20 +652,19 @@
       <c r="M4">
         <v>0.99</v>
       </c>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>1999</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
       <c r="E5">
         <v>13</v>
@@ -697,20 +693,19 @@
       <c r="M5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>1999</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -739,20 +734,19 @@
       <c r="M6">
         <v>0.25</v>
       </c>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>1999</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
+      <c r="D7" t="s">
+        <v>14</v>
       </c>
       <c r="E7">
         <v>57</v>
@@ -781,20 +775,19 @@
       <c r="M7">
         <v>0.1</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>1999</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
+      <c r="D8" t="s">
+        <v>17</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -823,19 +816,18 @@
       <c r="M8">
         <v>0.32</v>
       </c>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>1999</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9">
@@ -851,10 +843,10 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <v>2359</v>
@@ -865,20 +857,19 @@
       <c r="M9">
         <v>0.15</v>
       </c>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>1999</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
+      <c r="D10" t="s">
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -887,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10">
         <v>66</v>
@@ -907,20 +898,19 @@
       <c r="M10">
         <v>0.24</v>
       </c>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1999</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1999</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -929,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11">
         <v>26</v>
@@ -949,96 +939,46 @@
       <c r="M11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="24" spans="1:15">
+    </row>
+    <row r="15" spans="1:13">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="4:8">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="4:8">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="4:8">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="24" spans="4:8">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="4:8">
       <c r="D25" s="1"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="4:8">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="4:8">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="4:8">
       <c r="D29" s="1"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="4:8">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="4:8">
       <c r="D32" s="1"/>
     </row>
     <row r="34" spans="4:4">

--- a/data/historical_estimates/raw/Cameron_Forney_2000.xlsx
+++ b/data/historical_estimates/raw/Cameron_Forney_2000.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191ED6C0-8BAE-8549-9B72-E751E15D168B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F01749-A2BD-E64C-85E7-3E96D69445F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20280" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Effort" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>reference</t>
   </si>
@@ -106,13 +107,16 @@
   </si>
   <si>
     <t>Cameron &amp; Forney 2000</t>
+  </si>
+  <si>
+    <t>n_days_tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +128,11 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="TimesNewRomanPSMT"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="TimesNewRoman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,10 +155,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5835606F-17C4-734B-AF17-790539259DAA}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1023,4 +1033,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3144893-76C0-D24F-9056-190737FBD79E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/historical_estimates/raw/Cameron_Forney_2000.xlsx
+++ b/data/historical_estimates/raw/Cameron_Forney_2000.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F01749-A2BD-E64C-85E7-3E96D69445F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5898F39-806F-AA41-BF01-817E20F742E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>reference</t>
   </si>
@@ -109,14 +109,14 @@
     <t>Cameron &amp; Forney 2000</t>
   </si>
   <si>
-    <t>n_days_tot</t>
+    <t>nvesseldays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,11 +128,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="TimesNewRomanPSMT"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="TimesNewRoman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,11 +150,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +471,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1037,27 +1031,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3144893-76C0-D24F-9056-190737FBD79E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
         <v>1999</v>
       </c>
-      <c r="B2" s="3">
+      <c r="D2">
         <v>4173</v>
       </c>
     </row>
